--- a/test/test-shared-strings-with-r-element.xlsx
+++ b/test/test-shared-strings-with-r-element.xlsx
@@ -35,7 +35,25 @@
         <color indexed="11"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>sex</t>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>x</t>
     </r>
   </si>
 </sst>
